--- a/biology/Zoologie/Agrotis_puta/Agrotis_puta.xlsx
+++ b/biology/Zoologie/Agrotis_puta/Agrotis_puta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noctuelle des Renouées, Élagueuse
 Agrotis puta, aussi connue sous les noms de noctuelle des renouées et élagueuse, est une espèce de Lépidoptères (papillons) de la famille des Noctuidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago ressemble à celui d’Agrotis catalaunensis et, bien que cette dernière espèce soit de plus grande envergure, aux ailes antérieures plus longues et rectangulaires, la distinction est très difficile, nécessitant souvent l’examen des pièces génitales.
 			Mâle
@@ -545,12 +559,11 @@
           <t>Bioécologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille, polyphage, consomme diverses plantes basses.
-Distribution et biotopes
-L'espèce est répandue dans le Sud de l’Europe, de la péninsule Ibérique à la Turquie en passant par l’ex-Yougoslavie, en France, dans l’Ouest de l’Allemagne, et elle remonte jusqu’en Grande-Bretagne[1]. En France, elle est présente partout, y compris en Corse[2].
-Elle fréquente divers milieux ouverts : friches, cultures, prairies mésophiles, clairières, jusqu’en montagne. On la rencontre également en zone urbaine[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -576,14 +589,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces</t>
+          <t>Bioécologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Selon GBIF       (27 janvier 2024)[3] :
-Agrotis puta subsp. insula Richardson, 1958
-Agrotis puta subsp. puta</t>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue dans le Sud de l’Europe, de la péninsule Ibérique à la Turquie en passant par l’ex-Yougoslavie, en France, dans l’Ouest de l’Allemagne, et elle remonte jusqu’en Grande-Bretagne. En France, elle est présente partout, y compris en Corse.
+Elle fréquente divers milieux ouverts : friches, cultures, prairies mésophiles, clairières, jusqu’en montagne. On la rencontre également en zone urbaine[réf. souhaitée].
+</t>
         </is>
       </c>
     </row>
@@ -608,15 +627,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 janvier 2024) :
+Agrotis puta subsp. insula Richardson, 1958
+Agrotis puta subsp. puta</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrotis_puta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrotis_puta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Agrotis puta (Hübner, 1803)[3].
-L'espèce a été initialement classée dans le genre Noctua sous le protonyme Noctua puta Hübner, 1803[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : la noctuelle des renouées[3],[4] et élagueuse[3].
-Agrotis puta a pour synonymes[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Agrotis puta (Hübner, 1803).
+L'espèce a été initialement classée dans le genre Noctua sous le protonyme Noctua puta Hübner, 1803.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : la noctuelle des renouées, et élagueuse.
+Agrotis puta a pour synonymes :
 Agrotis agenjoi Berio, 1936
 Agrotis algerina Berio, 1936
 Agrotis amartia Schawerda, 1911
